--- a/4.2 Global Logistics Association - Data to Merge.xlsx
+++ b/4.2 Global Logistics Association - Data to Merge.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrsir\Downloads\Google-Data-Analytics-Assignments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B6DE2F-FBCB-4745-85FA-16F303F5F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="GLA Members" sheetId="1" r:id="rId3"/>
+    <sheet name="GLA Members" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1465,32 +1487,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Georgia"/>
     </font>
@@ -1500,3426 +1508,3656 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FF7C92-7FC4-4E01-B64E-4E18F3CDE17C}" name="Table1" displayName="Table1" ref="A1:M82" totalsRowShown="0">
+  <autoFilter ref="A1:M82" xr:uid="{90FF7C92-7FC4-4E01-B64E-4E18F3CDE17C}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{726E3A25-306A-4C31-89A0-A72F98A95F2C}" name="Member ID"/>
+    <tableColumn id="2" xr3:uid="{555E64CE-505A-45A1-9A48-7B3F3DE3E8C2}" name="Last name"/>
+    <tableColumn id="3" xr3:uid="{C27BE17E-E95D-4F94-8B81-E4A978A9EB35}" name="First name"/>
+    <tableColumn id="4" xr3:uid="{0C28138D-CF9A-479D-BDC3-56A61A6D0FC1}" name="Street"/>
+    <tableColumn id="5" xr3:uid="{D375BFB3-8041-41E8-9054-9833E61D1F3F}" name="Apt/Ste/Unit"/>
+    <tableColumn id="6" xr3:uid="{34A1FC74-3A5A-497E-9212-3F83E47FA12F}" name="New Address">
+      <calculatedColumnFormula>CONCATENATE(D2,E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{2ED5AB78-E430-4BA8-92BB-199D46B2B499}" name="City"/>
+    <tableColumn id="8" xr3:uid="{2A8A46BC-559F-487A-A6F3-9E96A6987FCD}" name="State"/>
+    <tableColumn id="9" xr3:uid="{CB15603D-889A-48F5-A16C-FCD8D8DE7C15}" name="Country"/>
+    <tableColumn id="10" xr3:uid="{11671363-FB3C-43FF-8085-C5212D817B35}" name="Zip Code"/>
+    <tableColumn id="11" xr3:uid="{22A61630-A30A-449B-AABA-6D8143E214FB}" name="Dues amount"/>
+    <tableColumn id="12" xr3:uid="{35A1311A-E9BB-4EBE-AACD-F0C088402816}" name="Membership end date"/>
+    <tableColumn id="13" xr3:uid="{A94EB6B6-A63D-44EC-927F-3909DA16B2F6}" name="Member type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="16.29"/>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="14.57"/>
-    <col customWidth="1" min="6" max="6" width="32.57"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
-    <col customWidth="1" min="8" max="8" width="13.86"/>
-    <col customWidth="1" min="9" max="10" width="17.14"/>
-    <col customWidth="1" min="11" max="11" width="14.29"/>
-    <col customWidth="1" min="12" max="13" width="25.0"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="str">
-        <f t="shared" ref="F2:F82" si="1">CONCATENATE(D2,E2)</f>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F82" si="0">CONCATENATE(D2,E2)</f>
         <v>25 Dyas RdSte. 101</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>44647.0</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>44647</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>7101 Notre Dame St </v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7101 Notre Dame St </v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5">
-        <v>2499.0</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3">
+        <v>2499</v>
+      </c>
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
         <v>8580 Esplanade Ave</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>44509.0</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="K4">
+        <v>199</v>
+      </c>
+      <c r="L4">
+        <v>44509</v>
+      </c>
+      <c r="M4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
         <v>135 Dundas St</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="5">
-        <v>999.0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>44712.0</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="K5">
+        <v>999</v>
+      </c>
+      <c r="L5">
+        <v>44712</v>
+      </c>
+      <c r="M5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
         <v>135 Dundas St</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>44712.0</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="K6">
+        <v>99</v>
+      </c>
+      <c r="L6">
+        <v>44712</v>
+      </c>
+      <c r="M6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
         <v>979 Cameron St</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>44541.0</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="K7">
+        <v>199</v>
+      </c>
+      <c r="L7">
+        <v>44541</v>
+      </c>
+      <c r="M7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
         <v>5600 Côte de Liesse</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="5">
-        <v>299.0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>44881.0</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="K8">
+        <v>299</v>
+      </c>
+      <c r="L8">
+        <v>44881</v>
+      </c>
+      <c r="M8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
         <v>155 Oakdale RdUnit 109</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>44712.0</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="K9">
+        <v>149</v>
+      </c>
+      <c r="L9">
+        <v>44712</v>
+      </c>
+      <c r="M9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
         <v>805 Route 143</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>44651.0</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="K10">
+        <v>199</v>
+      </c>
+      <c r="L10">
+        <v>44651</v>
+      </c>
+      <c r="M10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
         <v>13 Alleyne Ave</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="4">
-        <v>3143.0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>44895.0</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="J11">
+        <v>3143</v>
+      </c>
+      <c r="K11">
+        <v>149</v>
+      </c>
+      <c r="L11">
+        <v>44895</v>
+      </c>
+      <c r="M11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
         <v>1068 Glenashton Dr</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>44656.0</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="K12">
+        <v>199</v>
+      </c>
+      <c r="L12">
+        <v>44656</v>
+      </c>
+      <c r="M12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
         <v>20 Kang Choo Bin Walk</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>44561.0</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="K13">
+        <v>99</v>
+      </c>
+      <c r="L13">
+        <v>44561</v>
+      </c>
+      <c r="M13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
         <v>4134 134A Ave NW</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>44790.0</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="K14">
+        <v>199</v>
+      </c>
+      <c r="L14">
+        <v>44790</v>
+      </c>
+      <c r="M14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
         <v>406 Grange RoadApt H</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>44626.0</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="K15">
+        <v>199</v>
+      </c>
+      <c r="L15">
+        <v>44626</v>
+      </c>
+      <c r="M15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
         <v>4828 Mount Royal Gate SW</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>44771.0</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="K16">
+        <v>199</v>
+      </c>
+      <c r="L16">
+        <v>44771</v>
+      </c>
+      <c r="M16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
         <v>No 481 8F-1</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>44903.0</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="K17">
+        <v>149</v>
+      </c>
+      <c r="L17">
+        <v>44903</v>
+      </c>
+      <c r="M17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
         <v>143 Huron Heights Dr</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>44865.0</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="K18">
+        <v>199</v>
+      </c>
+      <c r="L18">
+        <v>44865</v>
+      </c>
+      <c r="M18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
         <v>Ringstrasse 21</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5">
-        <v>999.0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>44675.0</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="K19">
+        <v>999</v>
+      </c>
+      <c r="L19">
+        <v>44675</v>
+      </c>
+      <c r="M19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
         <v>90 Belfield Rd</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>44510.0</v>
-      </c>
-      <c r="M20" s="4" t="s">
+      <c r="K20">
+        <v>199</v>
+      </c>
+      <c r="L20">
+        <v>44510</v>
+      </c>
+      <c r="M20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
         <v>25 Helmsdale Dr</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="5">
-        <v>299.0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>44533.0</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="K21">
+        <v>299</v>
+      </c>
+      <c r="L21">
+        <v>44533</v>
+      </c>
+      <c r="M21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
         <v>198 Pearl Street East</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>44926.0</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="K22">
+        <v>199</v>
+      </c>
+      <c r="L22">
+        <v>44926</v>
+      </c>
+      <c r="M22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
         <v>C19 Shui Yun Garden</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>44775.0</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="K23">
+        <v>149</v>
+      </c>
+      <c r="L23">
+        <v>44775</v>
+      </c>
+      <c r="M23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
         <v>7505 134 A St</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>44712.0</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="K24">
+        <v>99</v>
+      </c>
+      <c r="L24">
+        <v>44712</v>
+      </c>
+      <c r="M24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
         <v>74 Apricot St</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>44834.0</v>
-      </c>
-      <c r="M25" s="4" t="s">
+      <c r="K25">
+        <v>199</v>
+      </c>
+      <c r="L25">
+        <v>44834</v>
+      </c>
+      <c r="M25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
         <v>PO Box 652572#3-C</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" t="s">
         <v>171</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4" t="s">
+      <c r="I26" t="s">
         <v>172</v>
       </c>
-      <c r="J26" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>44681.0</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="J26">
+        <v>2020</v>
+      </c>
+      <c r="K26">
+        <v>199</v>
+      </c>
+      <c r="L26">
+        <v>44681</v>
+      </c>
+      <c r="M26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
         <v>1555 Notre Dame E</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>44740.0</v>
-      </c>
-      <c r="M27" s="4" t="s">
+      <c r="K27">
+        <v>199</v>
+      </c>
+      <c r="L27">
+        <v>44740</v>
+      </c>
+      <c r="M27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
         <v>PO Box 1210</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="5">
-        <v>2499.0</v>
-      </c>
-      <c r="L28" s="6">
-        <v>44834.0</v>
-      </c>
-      <c r="M28" s="4" t="s">
+      <c r="K28">
+        <v>2499</v>
+      </c>
+      <c r="L28">
+        <v>44834</v>
+      </c>
+      <c r="M28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
         <v>3535 Trans Canada Hwy</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>44742.0</v>
-      </c>
-      <c r="M29" s="4" t="s">
+      <c r="K29">
+        <v>99</v>
+      </c>
+      <c r="L29">
+        <v>44742</v>
+      </c>
+      <c r="M29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
         <v>RR 2Ste. 10</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" t="s">
         <v>195</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
         <v>196</v>
       </c>
-      <c r="K30" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>44759.0</v>
-      </c>
-      <c r="M30" s="4" t="s">
+      <c r="K30">
+        <v>199</v>
+      </c>
+      <c r="L30">
+        <v>44759</v>
+      </c>
+      <c r="M30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>199</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
         <v>PO Box 5517</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
         <v>201</v>
       </c>
-      <c r="K31" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>44881.0</v>
-      </c>
-      <c r="M31" s="4" t="s">
+      <c r="K31">
+        <v>149</v>
+      </c>
+      <c r="L31">
+        <v>44881</v>
+      </c>
+      <c r="M31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
         <v>145 Jules Leger</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
         <v>207</v>
       </c>
-      <c r="K32" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>44545.0</v>
-      </c>
-      <c r="M32" s="4" t="s">
+      <c r="K32">
+        <v>199</v>
+      </c>
+      <c r="L32">
+        <v>44545</v>
+      </c>
+      <c r="M32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
         <v>30 Novopharm Ct</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
         <v>212</v>
       </c>
-      <c r="K33" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>44913.0</v>
-      </c>
-      <c r="M33" s="4" t="s">
+      <c r="K33">
+        <v>99</v>
+      </c>
+      <c r="L33">
+        <v>44913</v>
+      </c>
+      <c r="M33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
         <v>J Tarradellas 95 2.4</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" t="s">
         <v>217</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" t="s">
         <v>218</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5">
-        <v>299.0</v>
-      </c>
-      <c r="L34" s="6">
-        <v>44712.0</v>
-      </c>
-      <c r="M34" s="4" t="s">
+      <c r="K34">
+        <v>299</v>
+      </c>
+      <c r="L34">
+        <v>44712</v>
+      </c>
+      <c r="M34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
         <v>610 Des Tulipes</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>44865.0</v>
-      </c>
-      <c r="M35" s="4" t="s">
+      <c r="K35">
+        <v>199</v>
+      </c>
+      <c r="L35">
+        <v>44865</v>
+      </c>
+      <c r="M35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
         <v>1550 United Blvd</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" t="s">
         <v>228</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" t="s">
         <v>159</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
         <v>229</v>
       </c>
-      <c r="K36" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>44823.0</v>
-      </c>
-      <c r="M36" s="4" t="s">
+      <c r="K36">
+        <v>149</v>
+      </c>
+      <c r="L36">
+        <v>44823</v>
+      </c>
+      <c r="M36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>230</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>231</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>232</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
         <v>Paseo de la Habana 84 6-B</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>233</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" t="s">
         <v>218</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>44633.0</v>
-      </c>
-      <c r="M37" s="4" t="s">
+      <c r="K37">
+        <v>99</v>
+      </c>
+      <c r="L37">
+        <v>44633</v>
+      </c>
+      <c r="M37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>234</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>238</v>
       </c>
-      <c r="F38" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
         <v>100 Boul Alexis-NihonA-18</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" t="s">
         <v>239</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
         <v>240</v>
       </c>
-      <c r="K38" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L38" s="6">
-        <v>44742.0</v>
-      </c>
-      <c r="M38" s="4" t="s">
+      <c r="K38">
+        <v>199</v>
+      </c>
+      <c r="L38">
+        <v>44742</v>
+      </c>
+      <c r="M38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>243</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>244</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
         <v>Ruettmattstr 14</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" t="s">
         <v>245</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" t="s">
         <v>129</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>44742.0</v>
-      </c>
-      <c r="M39" s="4" t="s">
+      <c r="K39">
+        <v>199</v>
+      </c>
+      <c r="L39">
+        <v>44742</v>
+      </c>
+      <c r="M39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>246</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>248</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
         <v>Fagot 35</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" t="s">
         <v>250</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
         <v>251</v>
       </c>
-      <c r="K40" s="5">
-        <v>299.0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>44634.0</v>
-      </c>
-      <c r="M40" s="4" t="s">
+      <c r="K40">
+        <v>299</v>
+      </c>
+      <c r="L40">
+        <v>44634</v>
+      </c>
+      <c r="M40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>253</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" t="s">
         <v>255</v>
       </c>
-      <c r="F41" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
         <v>135 Dundas StApt. 4</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="4" t="s">
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
         <v>43</v>
       </c>
-      <c r="K41" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>44712.0</v>
-      </c>
-      <c r="M41" s="4" t="s">
+      <c r="K41">
+        <v>99</v>
+      </c>
+      <c r="L41">
+        <v>44712</v>
+      </c>
+      <c r="M41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>256</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>258</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>259</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
         <v>14 Saint Onge</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" t="s">
         <v>260</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
         <v>261</v>
       </c>
-      <c r="K42" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>44651.0</v>
-      </c>
-      <c r="M42" s="4" t="s">
+      <c r="K42">
+        <v>199</v>
+      </c>
+      <c r="L42">
+        <v>44651</v>
+      </c>
+      <c r="M42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>263</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>264</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>265</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>3000 Cote Sainte Catherine </v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3000 Cote Sainte Catherine </v>
+      </c>
+      <c r="G43" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="4" t="s">
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
         <v>266</v>
       </c>
-      <c r="K43" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>44742.0</v>
-      </c>
-      <c r="M43" s="4" t="s">
+      <c r="K43">
+        <v>199</v>
+      </c>
+      <c r="L43">
+        <v>44742</v>
+      </c>
+      <c r="M43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>267</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>268</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
         <v>Townhouse 26</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" t="s">
         <v>271</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="4" t="s">
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
         <v>272</v>
       </c>
-      <c r="K44" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L44" s="6">
-        <v>44592.0</v>
-      </c>
-      <c r="M44" s="4" t="s">
+      <c r="K44">
+        <v>199</v>
+      </c>
+      <c r="L44">
+        <v>44592</v>
+      </c>
+      <c r="M44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>273</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>274</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>275</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
         <v>79 De Varsovie</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" t="s">
         <v>276</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="4" t="s">
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
         <v>277</v>
       </c>
-      <c r="K45" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L45" s="6">
-        <v>44835.0</v>
-      </c>
-      <c r="M45" s="4" t="s">
+      <c r="K45">
+        <v>199</v>
+      </c>
+      <c r="L45">
+        <v>44835</v>
+      </c>
+      <c r="M45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>279</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>280</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>281</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
         <v>816 Finley Ave</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" t="s">
         <v>282</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="4" t="s">
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
         <v>283</v>
       </c>
-      <c r="K46" s="5">
-        <v>2499.0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>44865.0</v>
-      </c>
-      <c r="M46" s="4" t="s">
+      <c r="K46">
+        <v>2499</v>
+      </c>
+      <c r="L46">
+        <v>44865</v>
+      </c>
+      <c r="M46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>284</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>286</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>287</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>288</v>
       </c>
-      <c r="F47" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
         <v>4278 Beaconfield#3271</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="4" t="s">
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
         <v>289</v>
       </c>
-      <c r="K47" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>44695.0</v>
-      </c>
-      <c r="M47" s="4" t="s">
+      <c r="K47">
+        <v>199</v>
+      </c>
+      <c r="L47">
+        <v>44695</v>
+      </c>
+      <c r="M47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>291</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>292</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
         <v>600 Dr Frederik Philips Blvd</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" t="s">
         <v>239</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="4" t="s">
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
         <v>293</v>
       </c>
-      <c r="K48" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>44609.0</v>
-      </c>
-      <c r="M48" s="4" t="s">
+      <c r="K48">
+        <v>99</v>
+      </c>
+      <c r="L48">
+        <v>44609</v>
+      </c>
+      <c r="M48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>294</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>295</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>296</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>297</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
         <v>51 Craig Dr</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" t="s">
         <v>298</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" t="s">
         <v>299</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="4" t="s">
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
         <v>300</v>
       </c>
-      <c r="K49" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>44795.0</v>
-      </c>
-      <c r="M49" s="4" t="s">
+      <c r="K49">
+        <v>199</v>
+      </c>
+      <c r="L49">
+        <v>44795</v>
+      </c>
+      <c r="M49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>301</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>302</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>303</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>304</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
         <v>15 Vanderbilt Dr</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" t="s">
         <v>305</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" t="s">
         <v>306</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="4" t="s">
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
         <v>307</v>
       </c>
-      <c r="K50" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>44865.0</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="K50">
+        <v>199</v>
+      </c>
+      <c r="L50">
+        <v>44865</v>
+      </c>
+      <c r="M50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>309</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>310</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>311</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
         <v>PO Box 2288</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" t="s">
         <v>312</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" t="s">
         <v>313</v>
       </c>
-      <c r="K51" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>44864.0</v>
-      </c>
-      <c r="M51" s="4" t="s">
+      <c r="K51">
+        <v>199</v>
+      </c>
+      <c r="L51">
+        <v>44864</v>
+      </c>
+      <c r="M51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>314</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>316</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>317</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
         <v>Sortieweg 39</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" t="s">
         <v>318</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" t="s">
         <v>251</v>
       </c>
-      <c r="K52" s="5">
-        <v>299.0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>44865.0</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="K52">
+        <v>299</v>
+      </c>
+      <c r="L52">
+        <v>44865</v>
+      </c>
+      <c r="M52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>319</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>320</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>321</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>322</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
         <v>Landheuvel 3</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" t="s">
         <v>323</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" t="s">
         <v>251</v>
       </c>
-      <c r="K53" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L53" s="6">
-        <v>44766.0</v>
-      </c>
-      <c r="M53" s="4" t="s">
+      <c r="K53">
+        <v>199</v>
+      </c>
+      <c r="L53">
+        <v>44766</v>
+      </c>
+      <c r="M53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>324</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>325</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>326</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>327</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" t="s">
         <v>328</v>
       </c>
-      <c r="F54" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
         <v>Gesloten Stad 20Unit 10</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" t="s">
         <v>329</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" t="s">
         <v>251</v>
       </c>
-      <c r="K54" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L54" s="6">
-        <v>44757.0</v>
-      </c>
-      <c r="M54" s="4" t="s">
+      <c r="K54">
+        <v>199</v>
+      </c>
+      <c r="L54">
+        <v>44757</v>
+      </c>
+      <c r="M54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>330</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>331</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>332</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>333</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
         <v>Ricklinger Stadweg 120</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" t="s">
         <v>334</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" t="s">
         <v>129</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="5">
-        <v>299.0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>44545.0</v>
-      </c>
-      <c r="M55" s="4" t="s">
+      <c r="K55">
+        <v>299</v>
+      </c>
+      <c r="L55">
+        <v>44545</v>
+      </c>
+      <c r="M55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>335</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>336</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>338</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
         <v>PO Box 10747</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" t="s">
         <v>339</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="4" t="s">
+      <c r="I56" t="s">
         <v>340</v>
       </c>
-      <c r="J56" s="4">
-        <v>31311.0</v>
-      </c>
-      <c r="K56" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L56" s="6">
-        <v>44823.0</v>
-      </c>
-      <c r="M56" s="4" t="s">
+      <c r="J56">
+        <v>31311</v>
+      </c>
+      <c r="K56">
+        <v>199</v>
+      </c>
+      <c r="L56">
+        <v>44823</v>
+      </c>
+      <c r="M56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>341</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>343</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>344</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" t="s">
         <v>345</v>
       </c>
-      <c r="F57" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
         <v>14 Bythia StreetSte. 900</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" t="s">
         <v>346</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="4" t="s">
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
         <v>347</v>
       </c>
-      <c r="K57" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L57" s="6">
-        <v>44619.0</v>
-      </c>
-      <c r="M57" s="4" t="s">
+      <c r="K57">
+        <v>199</v>
+      </c>
+      <c r="L57">
+        <v>44619</v>
+      </c>
+      <c r="M57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>348</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>349</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>350</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>351</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
         <v>12800 Rue de L'Avenir</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" t="s">
         <v>352</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="4" t="s">
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
         <v>353</v>
       </c>
-      <c r="K58" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L58" s="6">
-        <v>44712.0</v>
-      </c>
-      <c r="M58" s="4" t="s">
+      <c r="K58">
+        <v>199</v>
+      </c>
+      <c r="L58">
+        <v>44712</v>
+      </c>
+      <c r="M58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>354</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>355</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>356</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>357</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
         <v>3000 Merivale Rd</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" t="s">
         <v>140</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="4" t="s">
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
         <v>358</v>
       </c>
-      <c r="K59" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L59" s="6">
-        <v>44530.0</v>
-      </c>
-      <c r="M59" s="4" t="s">
+      <c r="K59">
+        <v>199</v>
+      </c>
+      <c r="L59">
+        <v>44530</v>
+      </c>
+      <c r="M59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>359</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>360</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>361</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" t="s">
         <v>362</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
         <v>54 Lewis Cres</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" t="s">
         <v>363</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="4" t="s">
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
         <v>364</v>
       </c>
-      <c r="K60" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L60" s="6">
-        <v>44569.0</v>
-      </c>
-      <c r="M60" s="4" t="s">
+      <c r="K60">
+        <v>199</v>
+      </c>
+      <c r="L60">
+        <v>44569</v>
+      </c>
+      <c r="M60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>365</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>366</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>296</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>367</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
         <v>55 Summit Street</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" t="s">
         <v>111</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" t="s">
         <v>98</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
         <v>368</v>
       </c>
-      <c r="K61" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L61" s="6">
-        <v>44675.0</v>
-      </c>
-      <c r="M61" s="4" t="s">
+      <c r="K61">
+        <v>149</v>
+      </c>
+      <c r="L61">
+        <v>44675</v>
+      </c>
+      <c r="M61" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>369</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>370</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>371</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>372</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" t="s">
         <v>328</v>
       </c>
-      <c r="F62" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
         <v>6150 Kennedy RdUnit 10</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" t="s">
         <v>271</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="4" t="s">
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
         <v>373</v>
       </c>
-      <c r="K62" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L62" s="6">
-        <v>44742.0</v>
-      </c>
-      <c r="M62" s="4" t="s">
+      <c r="K62">
+        <v>199</v>
+      </c>
+      <c r="L62">
+        <v>44742</v>
+      </c>
+      <c r="M62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>374</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>375</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>376</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>377</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
         <v>De Hulk 16</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" t="s">
         <v>378</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" t="s">
         <v>251</v>
       </c>
-      <c r="K63" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L63" s="6">
-        <v>44697.0</v>
-      </c>
-      <c r="M63" s="4" t="s">
+      <c r="K63">
+        <v>199</v>
+      </c>
+      <c r="L63">
+        <v>44697</v>
+      </c>
+      <c r="M63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>379</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>380</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>175</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>381</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
         <v>1803 Lahey Ct</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" t="s">
         <v>382</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="4" t="s">
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
         <v>383</v>
       </c>
-      <c r="K64" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L64" s="6">
-        <v>44565.0</v>
-      </c>
-      <c r="M64" s="4" t="s">
+      <c r="K64">
+        <v>199</v>
+      </c>
+      <c r="L64">
+        <v>44565</v>
+      </c>
+      <c r="M64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>384</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>385</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>386</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>387</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
         <v>160 Cote Rouge</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" t="s">
         <v>388</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" t="s">
         <v>28</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="4" t="s">
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
         <v>389</v>
       </c>
-      <c r="K65" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L65" s="6">
-        <v>44844.0</v>
-      </c>
-      <c r="M65" s="4" t="s">
+      <c r="K65">
+        <v>199</v>
+      </c>
+      <c r="L65">
+        <v>44844</v>
+      </c>
+      <c r="M65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>390</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>391</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>392</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>393</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
         <v>3700 Gilmore Way</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" t="s">
         <v>394</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" t="s">
         <v>159</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="4" t="s">
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
         <v>395</v>
       </c>
-      <c r="K66" s="5">
-        <v>2499.0</v>
-      </c>
-      <c r="L66" s="6">
-        <v>44895.0</v>
-      </c>
-      <c r="M66" s="4" t="s">
+      <c r="K66">
+        <v>2499</v>
+      </c>
+      <c r="L66">
+        <v>44895</v>
+      </c>
+      <c r="M66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>396</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>397</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>398</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>399</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
         <v>375 Chemin Saint Francois Quest</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" t="s">
         <v>400</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="4" t="s">
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
         <v>401</v>
       </c>
-      <c r="K67" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L67" s="6">
-        <v>44588.0</v>
-      </c>
-      <c r="M67" s="4" t="s">
+      <c r="K67">
+        <v>199</v>
+      </c>
+      <c r="L67">
+        <v>44588</v>
+      </c>
+      <c r="M67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>402</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>403</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>404</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>405</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>1250 rue Guy Bureau </v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">1250 rue Guy Bureau </v>
+      </c>
+      <c r="G68" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="4" t="s">
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
         <v>406</v>
       </c>
-      <c r="K68" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L68" s="6">
-        <v>44681.0</v>
-      </c>
-      <c r="M68" s="4" t="s">
+      <c r="K68">
+        <v>99</v>
+      </c>
+      <c r="L68">
+        <v>44681</v>
+      </c>
+      <c r="M68" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>407</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>408</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>150</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>409</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F69" t="str">
+        <f t="shared" si="0"/>
         <v>1241 rue Cascades</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" t="s">
         <v>260</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" t="s">
         <v>28</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" s="4" t="s">
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
         <v>410</v>
       </c>
-      <c r="K69" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L69" s="6">
-        <v>44799.0</v>
-      </c>
-      <c r="M69" s="4" t="s">
+      <c r="K69">
+        <v>99</v>
+      </c>
+      <c r="L69">
+        <v>44799</v>
+      </c>
+      <c r="M69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>411</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>412</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>413</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>414</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F70" t="str">
+        <f t="shared" si="0"/>
         <v>Rudsveien 20-A</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" t="s">
         <v>415</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" t="s">
         <v>416</v>
       </c>
-      <c r="J70" s="7"/>
-      <c r="K70" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L70" s="6">
-        <v>44592.0</v>
-      </c>
-      <c r="M70" s="4" t="s">
+      <c r="K70">
+        <v>199</v>
+      </c>
+      <c r="L70">
+        <v>44592</v>
+      </c>
+      <c r="M70" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>417</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>418</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>419</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>420</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F71" t="str">
+        <f t="shared" si="0"/>
         <v>Dordognelaan 87</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" t="s">
         <v>421</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" t="s">
         <v>251</v>
       </c>
-      <c r="K71" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L71" s="6">
-        <v>44634.0</v>
-      </c>
-      <c r="M71" s="4" t="s">
+      <c r="K71">
+        <v>199</v>
+      </c>
+      <c r="L71">
+        <v>44634</v>
+      </c>
+      <c r="M71" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>422</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>423</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>424</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" t="s">
         <v>425</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F72" t="str">
+        <f t="shared" si="0"/>
         <v>18055 Meloche</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" t="s">
         <v>426</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="4" t="s">
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
         <v>427</v>
       </c>
-      <c r="K72" s="5">
-        <v>999.0</v>
-      </c>
-      <c r="L72" s="6" t="s">
+      <c r="K72">
+        <v>999</v>
+      </c>
+      <c r="L72" t="s">
         <v>30</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="M72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>428</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>429</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>430</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>431</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F73" t="str">
+        <f t="shared" si="0"/>
         <v>500 Palladium Dr</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" t="s">
         <v>140</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="4" t="s">
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
         <v>432</v>
       </c>
-      <c r="K73" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L73" s="6">
-        <v>44724.0</v>
-      </c>
-      <c r="M73" s="4" t="s">
+      <c r="K73">
+        <v>149</v>
+      </c>
+      <c r="L73">
+        <v>44724</v>
+      </c>
+      <c r="M73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>433</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="s">
         <v>434</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>435</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" t="s">
         <v>436</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" t="s">
         <v>437</v>
       </c>
-      <c r="F74" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F74" t="str">
+        <f t="shared" si="0"/>
         <v>Level 3 Pico Creative CentreApt. 5</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" t="s">
         <v>438</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" t="s">
         <v>92</v>
       </c>
-      <c r="J74" s="4">
-        <v>339411.0</v>
-      </c>
-      <c r="K74" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L74" s="6">
-        <v>44740.0</v>
-      </c>
-      <c r="M74" s="4" t="s">
+      <c r="J74">
+        <v>339411</v>
+      </c>
+      <c r="K74">
+        <v>199</v>
+      </c>
+      <c r="L74">
+        <v>44740</v>
+      </c>
+      <c r="M74" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>439</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>440</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>441</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>442</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F75" t="str">
+        <f t="shared" si="0"/>
         <v>202-5288 Melbourne St</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" t="s">
         <v>443</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" t="s">
         <v>159</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="4" t="s">
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
         <v>444</v>
       </c>
-      <c r="K75" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L75" s="6">
-        <v>44681.0</v>
-      </c>
-      <c r="M75" s="4" t="s">
+      <c r="K75">
+        <v>199</v>
+      </c>
+      <c r="L75">
+        <v>44681</v>
+      </c>
+      <c r="M75" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>445</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>446</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>248</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" t="s">
         <v>447</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F76" t="str">
+        <f t="shared" si="0"/>
         <v>233 Boylan</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" t="s">
         <v>448</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" t="s">
         <v>28</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="4" t="s">
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
         <v>449</v>
       </c>
-      <c r="K76" s="5">
-        <v>149.0</v>
-      </c>
-      <c r="L76" s="6">
-        <v>44742.0</v>
-      </c>
-      <c r="M76" s="4" t="s">
+      <c r="K76">
+        <v>149</v>
+      </c>
+      <c r="L76">
+        <v>44742</v>
+      </c>
+      <c r="M76" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>450</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>451</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>452</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>453</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F77" t="str">
+        <f t="shared" si="0"/>
         <v>362 Bedford Pk Ave</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" t="s">
         <v>134</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="4" t="s">
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
         <v>454</v>
       </c>
-      <c r="K77" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L77" s="6">
-        <v>44856.0</v>
-      </c>
-      <c r="M77" s="4" t="s">
+      <c r="K77">
+        <v>199</v>
+      </c>
+      <c r="L77">
+        <v>44856</v>
+      </c>
+      <c r="M77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>455</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>456</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>457</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" t="s">
         <v>458</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F78" t="str">
+        <f t="shared" si="0"/>
         <v>35 Basswood Ave Box 21</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" t="s">
         <v>459</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" t="s">
         <v>19</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="4" t="s">
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
         <v>460</v>
       </c>
-      <c r="K78" s="5">
-        <v>99.0</v>
-      </c>
-      <c r="L78" s="6">
-        <v>44681.0</v>
-      </c>
-      <c r="M78" s="4" t="s">
+      <c r="K78">
+        <v>99</v>
+      </c>
+      <c r="L78">
+        <v>44681</v>
+      </c>
+      <c r="M78" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>461</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>462</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>296</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>463</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F79" t="str">
+        <f t="shared" si="0"/>
         <v>18 Forest Ave</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" t="s">
         <v>464</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="4" t="s">
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
         <v>465</v>
       </c>
-      <c r="K79" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L79" s="6">
-        <v>44865.0</v>
-      </c>
-      <c r="M79" s="4" t="s">
+      <c r="K79">
+        <v>199</v>
+      </c>
+      <c r="L79">
+        <v>44865</v>
+      </c>
+      <c r="M79" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>466</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>467</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>469</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F80" t="str">
+        <f t="shared" si="0"/>
         <v>15 Oriole Pky</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" t="s">
         <v>470</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="4" t="s">
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
         <v>471</v>
       </c>
-      <c r="K80" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L80" s="6">
-        <v>44882.0</v>
-      </c>
-      <c r="M80" s="4" t="s">
+      <c r="K80">
+        <v>199</v>
+      </c>
+      <c r="L80">
+        <v>44882</v>
+      </c>
+      <c r="M80" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>472</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>473</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>316</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>474</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" t="s">
         <v>475</v>
       </c>
-      <c r="F81" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F81" t="str">
+        <f t="shared" si="0"/>
         <v>8600 Chemin DevonshireUnit 21</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" t="s">
         <v>58</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" t="s">
         <v>28</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="4" t="s">
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
         <v>476</v>
       </c>
-      <c r="K81" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L81" s="6">
-        <v>44639.0</v>
-      </c>
-      <c r="M81" s="4" t="s">
+      <c r="K81">
+        <v>199</v>
+      </c>
+      <c r="L81">
+        <v>44639</v>
+      </c>
+      <c r="M81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>477</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>478</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>479</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" t="s">
         <v>480</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F82" t="str">
+        <f t="shared" si="0"/>
         <v>5795 Don Murie St</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" t="s">
         <v>481</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="4" t="s">
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
         <v>482</v>
       </c>
-      <c r="K82" s="5">
-        <v>199.0</v>
-      </c>
-      <c r="L82" s="6">
-        <v>44622.0</v>
-      </c>
-      <c r="M82" s="4" t="s">
+      <c r="K82">
+        <v>199</v>
+      </c>
+      <c r="L82">
+        <v>44622</v>
+      </c>
+      <c r="M82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="4"/>
+    <row r="83" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>